--- a/TEST_CASE_BOOKSTORE.xlsx
+++ b/TEST_CASE_BOOKSTORE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anon1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97478C5-1E68-44A9-8636-31327D6CB0F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19070CF7-9655-46D0-B58F-6A26351C1294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="821" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -533,12 +533,6 @@
 4: Click Log In</t>
   </si>
   <si>
-    <t>Đăng nhập không thành công. Thông báo mật khẩu không thể toàn số</t>
-  </si>
-  <si>
-    <t>Đăng nhập không thành công. Thông báo mật khẩu không thể toàn kí tự đặc biệt</t>
-  </si>
-  <si>
     <t>1: Click icon tài khoản.
 2: Nhập tên đăng nhập đúng vào khung Username
 3: Nhập mật khẩu toàn kí tự đặc biệt  vào ô mật khẩu 
@@ -1509,6 +1503,12 @@
 2: Nhập đúng thông tin username
 3: Nhập sai thông tin password
 4: Click Log In</t>
+  </si>
+  <si>
+    <t>Đăng nhập thành công</t>
+  </si>
+  <si>
+    <t>đăng nhập thành công</t>
   </si>
 </sst>
 </file>
@@ -2486,12 +2486,63 @@
     <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2501,18 +2552,72 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2520,108 +2625,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2629,9 +2632,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3061,11 +3061,11 @@
       <c r="B6" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="137" t="s">
+      <c r="C6" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="137"/>
-      <c r="E6" s="138"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="142"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
     </row>
@@ -3074,11 +3074,11 @@
       <c r="B7" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="137"/>
-      <c r="E7" s="138"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="142"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
     </row>
@@ -3291,8 +3291,8 @@
   </sheetPr>
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -3312,9 +3312,9 @@
       <c r="A1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -3325,9 +3325,9 @@
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -3340,30 +3340,30 @@
       <c r="A3" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="137" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="138"/>
+      <c r="B3" s="141" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
       <c r="E3" s="68"/>
       <c r="F3" s="68"/>
       <c r="G3" s="68"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="12.75">
       <c r="A4" s="72"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="161"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="169"/>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
       <c r="G4" s="68"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
@@ -3382,9 +3382,9 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="158"/>
-      <c r="J5" s="158"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -3404,16 +3404,16 @@
       <c r="E6" s="69"/>
       <c r="F6" s="69"/>
       <c r="G6" s="69"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="158"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="166"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="156"/>
-      <c r="B7" s="156"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
+      <c r="A7" s="164"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -3423,54 +3423,54 @@
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" s="79" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A8" s="163" t="s">
+      <c r="A8" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="165" t="s">
+      <c r="B8" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="163" t="s">
+      <c r="C8" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="150" t="s">
+      <c r="D8" s="171" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="151"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="152"/>
-      <c r="H8" s="162" t="s">
+      <c r="E8" s="176"/>
+      <c r="F8" s="176"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="170" t="s">
         <v>87</v>
       </c>
       <c r="I8" s="110"/>
       <c r="J8" s="111"/>
     </row>
     <row r="9" spans="1:11" s="71" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A9" s="164"/>
-      <c r="B9" s="166"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="150"/>
+      <c r="A9" s="173"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="176"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="171"/>
       <c r="I9" s="70"/>
     </row>
     <row r="10" spans="1:11" s="80" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="157" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="157"/>
-      <c r="C10" s="157"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="157"/>
-      <c r="J10" s="157"/>
+      <c r="A10" s="165" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="165"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="165"/>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="A11" s="179">
+      <c r="A11" s="138">
         <v>1</v>
       </c>
       <c r="B11" s="132" t="s">
@@ -3479,11 +3479,11 @@
       <c r="C11" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="142" t="s">
+      <c r="D11" s="179" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="142"/>
-      <c r="F11" s="142"/>
+      <c r="E11" s="179"/>
+      <c r="F11" s="179"/>
       <c r="G11" s="102"/>
       <c r="H11" s="135" t="s">
         <v>88</v>
@@ -3492,7 +3492,7 @@
       <c r="J11" s="118"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="80.099999999999994" customHeight="1" outlineLevel="1">
-      <c r="A12" s="179">
+      <c r="A12" s="138">
         <f>A11+1</f>
         <v>2</v>
       </c>
@@ -3502,11 +3502,11 @@
       <c r="C12" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="143" t="s">
+      <c r="D12" s="180" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="142"/>
-      <c r="F12" s="142"/>
+      <c r="E12" s="179"/>
+      <c r="F12" s="179"/>
       <c r="G12" s="102"/>
       <c r="H12" s="135" t="s">
         <v>88</v>
@@ -3515,7 +3515,7 @@
       <c r="J12" s="118"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="80.099999999999994" customHeight="1" outlineLevel="1">
-      <c r="A13" s="179">
+      <c r="A13" s="138">
         <f t="shared" ref="A13:A62" si="0">A12+1</f>
         <v>3</v>
       </c>
@@ -3525,11 +3525,11 @@
       <c r="C13" s="133" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="143" t="s">
+      <c r="D13" s="180" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142"/>
+      <c r="E13" s="179"/>
+      <c r="F13" s="179"/>
       <c r="G13" s="102"/>
       <c r="H13" s="135" t="s">
         <v>88</v>
@@ -3538,7 +3538,7 @@
       <c r="J13" s="118"/>
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" ht="80.099999999999994" customHeight="1" outlineLevel="1">
-      <c r="A14" s="179">
+      <c r="A14" s="138">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -3548,11 +3548,11 @@
       <c r="C14" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="145" t="s">
+      <c r="D14" s="147" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="146"/>
-      <c r="F14" s="147"/>
+      <c r="E14" s="181"/>
+      <c r="F14" s="182"/>
       <c r="G14" s="102"/>
       <c r="H14" s="135" t="s">
         <v>88</v>
@@ -3561,21 +3561,21 @@
       <c r="J14" s="118"/>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" ht="80.099999999999994" customHeight="1" outlineLevel="1">
-      <c r="A15" s="179">
+      <c r="A15" s="138">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B15" s="133" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C15" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="145" t="s">
+      <c r="D15" s="147" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="146"/>
-      <c r="F15" s="147"/>
+      <c r="E15" s="181"/>
+      <c r="F15" s="182"/>
       <c r="G15" s="122"/>
       <c r="H15" s="135" t="s">
         <v>88</v>
@@ -3584,7 +3584,7 @@
       <c r="J15" s="118"/>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="80.099999999999994" customHeight="1" outlineLevel="1">
-      <c r="A16" s="179">
+      <c r="A16" s="138">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -3594,11 +3594,11 @@
       <c r="C16" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="145" t="s">
+      <c r="D16" s="147" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="146"/>
-      <c r="F16" s="147"/>
+      <c r="E16" s="181"/>
+      <c r="F16" s="182"/>
       <c r="G16" s="122"/>
       <c r="H16" s="135" t="s">
         <v>88</v>
@@ -3607,7 +3607,7 @@
       <c r="J16" s="118"/>
     </row>
     <row r="17" spans="1:14" s="4" customFormat="1" ht="80.099999999999994" customHeight="1" outlineLevel="1">
-      <c r="A17" s="179">
+      <c r="A17" s="138">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -3617,11 +3617,11 @@
       <c r="C17" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="145" t="s">
+      <c r="D17" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="146"/>
-      <c r="F17" s="147"/>
+      <c r="E17" s="181"/>
+      <c r="F17" s="182"/>
       <c r="G17" s="102"/>
       <c r="H17" s="135" t="s">
         <v>88</v>
@@ -3630,21 +3630,21 @@
       <c r="J17" s="118"/>
     </row>
     <row r="18" spans="1:14" s="4" customFormat="1" ht="80.099999999999994" customHeight="1" outlineLevel="1">
-      <c r="A18" s="179">
+      <c r="A18" s="138">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B18" s="133" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="147" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="112" t="s">
-        <v>135</v>
-      </c>
-      <c r="D18" s="145" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" s="146"/>
-      <c r="F18" s="147"/>
+      <c r="E18" s="181"/>
+      <c r="F18" s="182"/>
       <c r="G18" s="102"/>
       <c r="H18" s="135" t="s">
         <v>88</v>
@@ -3653,7 +3653,7 @@
       <c r="J18" s="118"/>
     </row>
     <row r="19" spans="1:14" s="4" customFormat="1" ht="80.099999999999994" customHeight="1" outlineLevel="1">
-      <c r="A19" s="179">
+      <c r="A19" s="138">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -3663,11 +3663,11 @@
       <c r="C19" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="145" t="s">
+      <c r="D19" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="146"/>
-      <c r="F19" s="147"/>
+      <c r="E19" s="181"/>
+      <c r="F19" s="182"/>
       <c r="G19" s="102"/>
       <c r="H19" s="135" t="s">
         <v>88</v>
@@ -3676,7 +3676,7 @@
       <c r="J19" s="118"/>
     </row>
     <row r="20" spans="1:14" s="4" customFormat="1" ht="80.099999999999994" customHeight="1" outlineLevel="1">
-      <c r="A20" s="179">
+      <c r="A20" s="138">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -3686,11 +3686,11 @@
       <c r="C20" s="112" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="145" t="s">
+      <c r="D20" s="147" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
+      <c r="E20" s="181"/>
+      <c r="F20" s="182"/>
       <c r="G20" s="102"/>
       <c r="H20" s="135" t="s">
         <v>88</v>
@@ -3699,21 +3699,21 @@
       <c r="J20" s="118"/>
     </row>
     <row r="21" spans="1:14" s="4" customFormat="1" ht="80.099999999999994" customHeight="1" outlineLevel="1">
-      <c r="A21" s="179">
+      <c r="A21" s="138">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B21" s="133" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C21" s="112" t="s">
-        <v>211</v>
-      </c>
-      <c r="D21" s="145" t="s">
+        <v>209</v>
+      </c>
+      <c r="D21" s="147" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="146"/>
-      <c r="F21" s="147"/>
+      <c r="E21" s="181"/>
+      <c r="F21" s="182"/>
       <c r="G21" s="118"/>
       <c r="H21" s="135" t="s">
         <v>88</v>
@@ -3722,7 +3722,7 @@
       <c r="J21" s="104"/>
     </row>
     <row r="22" spans="1:14" s="86" customFormat="1" ht="80.099999999999994" customHeight="1" outlineLevel="1">
-      <c r="A22" s="179">
+      <c r="A22" s="138">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -3732,11 +3732,11 @@
       <c r="C22" s="112" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="182" t="s">
+      <c r="D22" s="183" t="s">
         <v>119</v>
       </c>
-      <c r="E22" s="183"/>
-      <c r="F22" s="184"/>
+      <c r="E22" s="184"/>
+      <c r="F22" s="185"/>
       <c r="G22" s="125"/>
       <c r="H22" s="135" t="s">
         <v>88</v>
@@ -3745,7 +3745,7 @@
       <c r="J22" s="120"/>
     </row>
     <row r="23" spans="1:14" s="4" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="A23" s="179">
+      <c r="A23" s="138">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -3755,11 +3755,11 @@
       <c r="C23" s="112" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="143" t="s">
+      <c r="D23" s="180" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="180"/>
       <c r="G23" s="102"/>
       <c r="H23" s="135" t="s">
         <v>88</v>
@@ -3768,7 +3768,7 @@
       <c r="J23" s="107"/>
     </row>
     <row r="24" spans="1:14" s="86" customFormat="1" ht="80.099999999999994" customHeight="1" outlineLevel="1">
-      <c r="A24" s="179">
+      <c r="A24" s="138">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -3778,11 +3778,11 @@
       <c r="C24" s="112" t="s">
         <v>118</v>
       </c>
-      <c r="D24" s="143" t="s">
+      <c r="D24" s="180" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
+      <c r="E24" s="180"/>
+      <c r="F24" s="180"/>
       <c r="G24" s="102"/>
       <c r="H24" s="135" t="s">
         <v>88</v>
@@ -3795,7 +3795,7 @@
       <c r="N24" s="94"/>
     </row>
     <row r="25" spans="1:14" s="86" customFormat="1" ht="80.099999999999994" customHeight="1" outlineLevel="1">
-      <c r="A25" s="179">
+      <c r="A25" s="138">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -3805,11 +3805,11 @@
       <c r="C25" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="153" t="s">
+      <c r="D25" s="178" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="178"/>
       <c r="G25" s="81"/>
       <c r="H25" s="136" t="s">
         <v>88</v>
@@ -3818,7 +3818,7 @@
       <c r="J25" s="107"/>
     </row>
     <row r="26" spans="1:14" s="4" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="A26" s="179">
+      <c r="A26" s="138">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -3828,11 +3828,11 @@
       <c r="C26" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="153" t="s">
+      <c r="D26" s="178" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="153"/>
-      <c r="F26" s="153"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="178"/>
       <c r="G26" s="81"/>
       <c r="H26" s="136" t="s">
         <v>88</v>
@@ -3841,7 +3841,7 @@
       <c r="J26" s="107"/>
     </row>
     <row r="27" spans="1:14" s="4" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="A27" s="179">
+      <c r="A27" s="138">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -3849,13 +3849,13 @@
         <v>110</v>
       </c>
       <c r="C27" s="131" t="s">
-        <v>348</v>
-      </c>
-      <c r="D27" s="148" t="s">
+        <v>346</v>
+      </c>
+      <c r="D27" s="159" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="185"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="161"/>
       <c r="G27" s="124"/>
       <c r="H27" s="136" t="s">
         <v>88</v>
@@ -3864,7 +3864,7 @@
       <c r="J27" s="107"/>
     </row>
     <row r="28" spans="1:14" s="4" customFormat="1" ht="80.099999999999994" customHeight="1" outlineLevel="1">
-      <c r="A28" s="179">
+      <c r="A28" s="138">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -3872,13 +3872,13 @@
         <v>111</v>
       </c>
       <c r="C28" s="131" t="s">
-        <v>349</v>
-      </c>
-      <c r="D28" s="148" t="s">
+        <v>347</v>
+      </c>
+      <c r="D28" s="159" t="s">
         <v>109</v>
       </c>
-      <c r="E28" s="149"/>
-      <c r="F28" s="185"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="161"/>
       <c r="G28" s="124"/>
       <c r="H28" s="136" t="s">
         <v>88</v>
@@ -3887,7 +3887,7 @@
       <c r="J28" s="107"/>
     </row>
     <row r="29" spans="1:14" s="86" customFormat="1" ht="80.099999999999994" customHeight="1" outlineLevel="1">
-      <c r="A29" s="179">
+      <c r="A29" s="138">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -3895,13 +3895,13 @@
         <v>114</v>
       </c>
       <c r="C29" s="131" t="s">
-        <v>350</v>
-      </c>
-      <c r="D29" s="148" t="s">
+        <v>348</v>
+      </c>
+      <c r="D29" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="185"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="161"/>
       <c r="G29" s="124"/>
       <c r="H29" s="136" t="s">
         <v>88</v>
@@ -3910,7 +3910,7 @@
       <c r="J29" s="107"/>
     </row>
     <row r="30" spans="1:14" s="4" customFormat="1" ht="80.099999999999994" customHeight="1" outlineLevel="1">
-      <c r="A30" s="179">
+      <c r="A30" s="138">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -3918,13 +3918,13 @@
         <v>113</v>
       </c>
       <c r="C30" s="131" t="s">
-        <v>351</v>
-      </c>
-      <c r="D30" s="148" t="s">
-        <v>130</v>
-      </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="185"/>
+        <v>349</v>
+      </c>
+      <c r="D30" s="159" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="160"/>
+      <c r="F30" s="161"/>
       <c r="G30" s="124"/>
       <c r="H30" s="136" t="s">
         <v>88</v>
@@ -3933,21 +3933,21 @@
       <c r="J30" s="106"/>
     </row>
     <row r="31" spans="1:14" s="86" customFormat="1" ht="80.099999999999994" customHeight="1" outlineLevel="1">
-      <c r="A31" s="179">
+      <c r="A31" s="138">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B31" s="131" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C31" s="131" t="s">
-        <v>352</v>
-      </c>
-      <c r="D31" s="148" t="s">
-        <v>130</v>
-      </c>
-      <c r="E31" s="149"/>
-      <c r="F31" s="185"/>
+        <v>350</v>
+      </c>
+      <c r="D31" s="159" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="160"/>
+      <c r="F31" s="161"/>
       <c r="G31" s="128"/>
       <c r="H31" s="136" t="s">
         <v>88</v>
@@ -3956,7 +3956,7 @@
       <c r="J31" s="106"/>
     </row>
     <row r="32" spans="1:14" s="86" customFormat="1" ht="80.099999999999994" customHeight="1" outlineLevel="1">
-      <c r="A32" s="179">
+      <c r="A32" s="138">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -3964,13 +3964,13 @@
         <v>120</v>
       </c>
       <c r="C32" s="131" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32" s="139" t="s">
-        <v>126</v>
-      </c>
-      <c r="E32" s="140"/>
-      <c r="F32" s="141"/>
+        <v>125</v>
+      </c>
+      <c r="D32" s="156" t="s">
+        <v>352</v>
+      </c>
+      <c r="E32" s="157"/>
+      <c r="F32" s="158"/>
       <c r="G32" s="123"/>
       <c r="H32" s="135" t="s">
         <v>88</v>
@@ -3979,7 +3979,7 @@
       <c r="J32" s="87"/>
     </row>
     <row r="33" spans="1:10" s="86" customFormat="1" ht="80.099999999999994" customHeight="1" outlineLevel="1">
-      <c r="A33" s="179">
+      <c r="A33" s="138">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -3989,11 +3989,11 @@
       <c r="C33" s="131" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="139" t="s">
-        <v>125</v>
-      </c>
-      <c r="E33" s="140"/>
-      <c r="F33" s="141"/>
+      <c r="D33" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="E33" s="157"/>
+      <c r="F33" s="158"/>
       <c r="G33" s="123"/>
       <c r="H33" s="135" t="s">
         <v>88</v>
@@ -4002,7 +4002,7 @@
       <c r="J33" s="87"/>
     </row>
     <row r="34" spans="1:10" s="86" customFormat="1" ht="80.099999999999994" customHeight="1" outlineLevel="1">
-      <c r="A34" s="179">
+      <c r="A34" s="138">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -4012,11 +4012,11 @@
       <c r="C34" s="131" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="139" t="s">
+      <c r="D34" s="156" t="s">
         <v>121</v>
       </c>
-      <c r="E34" s="140"/>
-      <c r="F34" s="141"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="158"/>
       <c r="G34" s="123"/>
       <c r="H34" s="136" t="s">
         <v>88</v>
@@ -4025,7 +4025,7 @@
       <c r="J34" s="117"/>
     </row>
     <row r="35" spans="1:10" s="4" customFormat="1" ht="80.099999999999994" customHeight="1" outlineLevel="1">
-      <c r="A35" s="179">
+      <c r="A35" s="138">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -4035,11 +4035,11 @@
       <c r="C35" s="131" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="139" t="s">
+      <c r="D35" s="156" t="s">
         <v>121</v>
       </c>
-      <c r="E35" s="140"/>
-      <c r="F35" s="141"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="158"/>
       <c r="G35" s="123"/>
       <c r="H35" s="136" t="s">
         <v>88</v>
@@ -4048,7 +4048,7 @@
       <c r="J35" s="87"/>
     </row>
     <row r="36" spans="1:10" s="86" customFormat="1" ht="80.099999999999994" customHeight="1" outlineLevel="1">
-      <c r="A36" s="179">
+      <c r="A36" s="138">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -4058,11 +4058,11 @@
       <c r="C36" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="144" t="s">
+      <c r="D36" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="144"/>
-      <c r="F36" s="144"/>
+      <c r="E36" s="143"/>
+      <c r="F36" s="143"/>
       <c r="G36" s="81"/>
       <c r="H36" s="136" t="s">
         <v>88</v>
@@ -4071,7 +4071,7 @@
       <c r="J36" s="87"/>
     </row>
     <row r="37" spans="1:10" s="4" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="A37" s="179">
+      <c r="A37" s="138">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -4081,11 +4081,11 @@
       <c r="C37" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="144" t="s">
+      <c r="D37" s="143" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="144"/>
-      <c r="F37" s="144"/>
+      <c r="E37" s="143"/>
+      <c r="F37" s="143"/>
       <c r="G37" s="124"/>
       <c r="H37" s="136" t="s">
         <v>88</v>
@@ -4094,21 +4094,21 @@
       <c r="J37" s="87"/>
     </row>
     <row r="38" spans="1:10" s="86" customFormat="1" ht="80.099999999999994" customHeight="1" outlineLevel="1">
-      <c r="A38" s="179">
+      <c r="A38" s="138">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B38" s="131" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="131" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="143" t="s">
         <v>131</v>
       </c>
-      <c r="C38" s="131" t="s">
-        <v>132</v>
-      </c>
-      <c r="D38" s="144" t="s">
-        <v>133</v>
-      </c>
-      <c r="E38" s="144"/>
-      <c r="F38" s="144"/>
+      <c r="E38" s="143"/>
+      <c r="F38" s="143"/>
       <c r="G38" s="81"/>
       <c r="H38" s="136" t="s">
         <v>88</v>
@@ -4117,7 +4117,7 @@
       <c r="J38" s="87"/>
     </row>
     <row r="39" spans="1:10" ht="80.099999999999994" customHeight="1">
-      <c r="A39" s="179">
+      <c r="A39" s="138">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -4125,13 +4125,13 @@
         <v>58</v>
       </c>
       <c r="C39" s="131" t="s">
-        <v>345</v>
-      </c>
-      <c r="D39" s="139" t="s">
+        <v>343</v>
+      </c>
+      <c r="D39" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="E39" s="140"/>
-      <c r="F39" s="141"/>
+      <c r="E39" s="157"/>
+      <c r="F39" s="158"/>
       <c r="G39" s="81"/>
       <c r="H39" s="136" t="s">
         <v>88</v>
@@ -4140,21 +4140,21 @@
       <c r="J39" s="87"/>
     </row>
     <row r="40" spans="1:10" ht="69.95" customHeight="1">
-      <c r="A40" s="179">
+      <c r="A40" s="138">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B40" s="131" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C40" s="131" t="s">
-        <v>346</v>
-      </c>
-      <c r="D40" s="139" t="s">
-        <v>347</v>
-      </c>
-      <c r="E40" s="140"/>
-      <c r="F40" s="141"/>
+        <v>344</v>
+      </c>
+      <c r="D40" s="156" t="s">
+        <v>345</v>
+      </c>
+      <c r="E40" s="157"/>
+      <c r="F40" s="158"/>
       <c r="G40" s="126"/>
       <c r="H40" s="136" t="s">
         <v>88</v>
@@ -4163,7 +4163,7 @@
       <c r="J40" s="87"/>
     </row>
     <row r="41" spans="1:10" ht="69.95" customHeight="1">
-      <c r="A41" s="179">
+      <c r="A41" s="138">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -4173,11 +4173,11 @@
       <c r="C41" s="131" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="144" t="s">
+      <c r="D41" s="143" t="s">
         <v>60</v>
       </c>
-      <c r="E41" s="144"/>
-      <c r="F41" s="144"/>
+      <c r="E41" s="143"/>
+      <c r="F41" s="143"/>
       <c r="G41" s="81"/>
       <c r="H41" s="136" t="s">
         <v>88</v>
@@ -4186,7 +4186,7 @@
       <c r="J41" s="101"/>
     </row>
     <row r="42" spans="1:10" ht="69.95" customHeight="1">
-      <c r="A42" s="179">
+      <c r="A42" s="138">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -4196,11 +4196,11 @@
       <c r="C42" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="144" t="s">
+      <c r="D42" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="144"/>
-      <c r="F42" s="144"/>
+      <c r="E42" s="143"/>
+      <c r="F42" s="143"/>
       <c r="G42" s="81"/>
       <c r="H42" s="136" t="s">
         <v>88</v>
@@ -4209,439 +4209,439 @@
       <c r="J42" s="87"/>
     </row>
     <row r="43" spans="1:10" ht="80.099999999999994" customHeight="1">
-      <c r="A43" s="179">
+      <c r="A43" s="138">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B43" s="129" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="131" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="156" t="s">
         <v>139</v>
       </c>
-      <c r="C43" s="131" t="s">
-        <v>140</v>
-      </c>
-      <c r="D43" s="139" t="s">
-        <v>141</v>
-      </c>
-      <c r="E43" s="140"/>
-      <c r="F43" s="141"/>
+      <c r="E43" s="157"/>
+      <c r="F43" s="158"/>
       <c r="G43" s="134"/>
       <c r="H43" s="136" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="80.099999999999994" customHeight="1">
-      <c r="A44" s="179">
+      <c r="A44" s="138">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B44" s="129" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" s="131" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" s="156" t="s">
         <v>142</v>
       </c>
-      <c r="C44" s="131" t="s">
-        <v>143</v>
-      </c>
-      <c r="D44" s="139" t="s">
-        <v>144</v>
-      </c>
-      <c r="E44" s="140"/>
-      <c r="F44" s="141"/>
+      <c r="E44" s="157"/>
+      <c r="F44" s="158"/>
       <c r="G44" s="134"/>
       <c r="H44" s="136" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="80.099999999999994" customHeight="1">
-      <c r="A45" s="179">
+      <c r="A45" s="138">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B45" s="129" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="131" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="156" t="s">
         <v>145</v>
       </c>
-      <c r="C45" s="131" t="s">
-        <v>146</v>
-      </c>
-      <c r="D45" s="139" t="s">
-        <v>147</v>
-      </c>
-      <c r="E45" s="140"/>
-      <c r="F45" s="141"/>
+      <c r="E45" s="157"/>
+      <c r="F45" s="158"/>
       <c r="G45" s="134"/>
       <c r="H45" s="136" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="80.099999999999994" customHeight="1">
-      <c r="A46" s="179">
+      <c r="A46" s="138">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B46" s="129" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="131" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="156" t="s">
         <v>148</v>
       </c>
-      <c r="C46" s="131" t="s">
-        <v>149</v>
-      </c>
-      <c r="D46" s="139" t="s">
-        <v>150</v>
-      </c>
-      <c r="E46" s="140"/>
-      <c r="F46" s="141"/>
+      <c r="E46" s="157"/>
+      <c r="F46" s="158"/>
       <c r="G46" s="134"/>
       <c r="H46" s="136" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="80.099999999999994" customHeight="1">
-      <c r="A47" s="179">
+      <c r="A47" s="138">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B47" s="129" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="131" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="156" t="s">
         <v>151</v>
       </c>
-      <c r="C47" s="131" t="s">
-        <v>152</v>
-      </c>
-      <c r="D47" s="139" t="s">
-        <v>153</v>
-      </c>
-      <c r="E47" s="140"/>
-      <c r="F47" s="141"/>
+      <c r="E47" s="157"/>
+      <c r="F47" s="158"/>
       <c r="G47" s="134"/>
       <c r="H47" s="136" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="80.099999999999994" customHeight="1">
-      <c r="A48" s="179">
+      <c r="A48" s="138">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B48" s="129" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" s="131" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" s="156" t="s">
         <v>154</v>
       </c>
-      <c r="C48" s="131" t="s">
-        <v>155</v>
-      </c>
-      <c r="D48" s="139" t="s">
-        <v>156</v>
-      </c>
-      <c r="E48" s="140"/>
-      <c r="F48" s="141"/>
+      <c r="E48" s="157"/>
+      <c r="F48" s="158"/>
       <c r="G48" s="134"/>
       <c r="H48" s="136" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A49" s="179">
+      <c r="A49" s="138">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B49" s="129" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="131" t="s">
+        <v>156</v>
+      </c>
+      <c r="D49" s="156" t="s">
         <v>157</v>
       </c>
-      <c r="C49" s="131" t="s">
-        <v>158</v>
-      </c>
-      <c r="D49" s="139" t="s">
-        <v>159</v>
-      </c>
-      <c r="E49" s="140"/>
-      <c r="F49" s="141"/>
+      <c r="E49" s="157"/>
+      <c r="F49" s="158"/>
       <c r="G49" s="134"/>
       <c r="H49" s="136" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A50" s="179">
+      <c r="A50" s="138">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B50" s="129" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" s="131" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" s="156" t="s">
         <v>160</v>
       </c>
-      <c r="C50" s="131" t="s">
-        <v>161</v>
-      </c>
-      <c r="D50" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="E50" s="140"/>
-      <c r="F50" s="141"/>
+      <c r="E50" s="157"/>
+      <c r="F50" s="158"/>
       <c r="G50" s="134"/>
       <c r="H50" s="136" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A51" s="179">
+      <c r="A51" s="138">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B51" s="129" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" s="131" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="156" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="131" t="s">
-        <v>152</v>
-      </c>
-      <c r="D51" s="139" t="s">
-        <v>153</v>
-      </c>
-      <c r="E51" s="140"/>
-      <c r="F51" s="141"/>
+      <c r="E51" s="157"/>
+      <c r="F51" s="158"/>
       <c r="G51" s="134"/>
       <c r="H51" s="136" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A52" s="179">
+      <c r="A52" s="138">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B52" s="129" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" s="131" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="156" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="131" t="s">
-        <v>140</v>
-      </c>
-      <c r="D52" s="139" t="s">
-        <v>141</v>
-      </c>
-      <c r="E52" s="140"/>
-      <c r="F52" s="141"/>
+      <c r="E52" s="157"/>
+      <c r="F52" s="158"/>
       <c r="G52" s="134"/>
       <c r="H52" s="136" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A53" s="179">
+      <c r="A53" s="138">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B53" s="129" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C53" s="131" t="s">
+        <v>161</v>
+      </c>
+      <c r="D53" s="156" t="s">
         <v>163</v>
       </c>
-      <c r="D53" s="139" t="s">
-        <v>165</v>
-      </c>
-      <c r="E53" s="140"/>
-      <c r="F53" s="141"/>
+      <c r="E53" s="157"/>
+      <c r="F53" s="158"/>
       <c r="G53" s="127"/>
       <c r="H53" s="136" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A54" s="179">
+      <c r="A54" s="138">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B54" s="129" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C54" s="131" t="s">
-        <v>163</v>
-      </c>
-      <c r="D54" s="139" t="s">
-        <v>167</v>
-      </c>
-      <c r="E54" s="140"/>
-      <c r="F54" s="141"/>
+        <v>161</v>
+      </c>
+      <c r="D54" s="156" t="s">
+        <v>165</v>
+      </c>
+      <c r="E54" s="157"/>
+      <c r="F54" s="158"/>
       <c r="G54" s="127"/>
       <c r="H54" s="136" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A55" s="179">
+      <c r="A55" s="138">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B55" s="129" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" s="131" t="s">
         <v>168</v>
       </c>
-      <c r="C55" s="131" t="s">
-        <v>170</v>
-      </c>
-      <c r="D55" s="139" t="s">
-        <v>169</v>
-      </c>
-      <c r="E55" s="140"/>
-      <c r="F55" s="141"/>
+      <c r="D55" s="156" t="s">
+        <v>167</v>
+      </c>
+      <c r="E55" s="157"/>
+      <c r="F55" s="158"/>
       <c r="G55" s="127"/>
       <c r="H55" s="136" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A56" s="179">
+      <c r="A56" s="138">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B56" s="129" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C56" s="131" t="s">
-        <v>170</v>
-      </c>
-      <c r="D56" s="139" t="s">
-        <v>169</v>
-      </c>
-      <c r="E56" s="140"/>
-      <c r="F56" s="141"/>
+        <v>168</v>
+      </c>
+      <c r="D56" s="156" t="s">
+        <v>167</v>
+      </c>
+      <c r="E56" s="157"/>
+      <c r="F56" s="158"/>
       <c r="G56" s="127"/>
       <c r="H56" s="136" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A57" s="179">
+      <c r="A57" s="138">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B57" s="129" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="131" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" s="156" t="s">
         <v>172</v>
       </c>
-      <c r="C57" s="131" t="s">
-        <v>173</v>
-      </c>
-      <c r="D57" s="139" t="s">
-        <v>174</v>
-      </c>
-      <c r="E57" s="140"/>
-      <c r="F57" s="141"/>
+      <c r="E57" s="157"/>
+      <c r="F57" s="158"/>
       <c r="G57" s="127"/>
       <c r="H57" s="136" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A58" s="179">
+      <c r="A58" s="138">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B58" s="129" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C58" s="130" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58" s="156" t="s">
         <v>176</v>
       </c>
-      <c r="D58" s="139" t="s">
-        <v>178</v>
-      </c>
-      <c r="E58" s="140"/>
-      <c r="F58" s="141"/>
+      <c r="E58" s="157"/>
+      <c r="F58" s="158"/>
       <c r="G58" s="127"/>
       <c r="H58" s="136" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A59" s="179">
+      <c r="A59" s="138">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B59" s="129" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C59" s="130" t="s">
-        <v>177</v>
-      </c>
-      <c r="D59" s="139" t="s">
-        <v>178</v>
-      </c>
-      <c r="E59" s="140"/>
-      <c r="F59" s="141"/>
+        <v>175</v>
+      </c>
+      <c r="D59" s="156" t="s">
+        <v>176</v>
+      </c>
+      <c r="E59" s="157"/>
+      <c r="F59" s="158"/>
       <c r="G59" s="127"/>
       <c r="H59" s="136" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A60" s="179">
+      <c r="A60" s="138">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B60" s="129" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C60" s="130" t="s">
-        <v>328</v>
-      </c>
-      <c r="D60" s="139" t="s">
-        <v>180</v>
-      </c>
-      <c r="E60" s="140"/>
-      <c r="F60" s="141"/>
+        <v>326</v>
+      </c>
+      <c r="D60" s="156" t="s">
+        <v>178</v>
+      </c>
+      <c r="E60" s="157"/>
+      <c r="F60" s="158"/>
       <c r="G60" s="127"/>
       <c r="H60" s="135" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A61" s="179">
+      <c r="A61" s="138">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B61" s="129" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C61" s="130" t="s">
-        <v>329</v>
-      </c>
-      <c r="D61" s="139" t="s">
-        <v>178</v>
-      </c>
-      <c r="E61" s="140"/>
-      <c r="F61" s="141"/>
+        <v>327</v>
+      </c>
+      <c r="D61" s="156" t="s">
+        <v>176</v>
+      </c>
+      <c r="E61" s="157"/>
+      <c r="F61" s="158"/>
       <c r="G61" s="127"/>
       <c r="H61" s="136" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A62" s="179">
+      <c r="A62" s="138">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B62" s="129" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C62" s="130" t="s">
-        <v>330</v>
-      </c>
-      <c r="D62" s="139" t="s">
-        <v>184</v>
-      </c>
-      <c r="E62" s="140"/>
-      <c r="F62" s="141"/>
+        <v>328</v>
+      </c>
+      <c r="D62" s="156" t="s">
+        <v>182</v>
+      </c>
+      <c r="E62" s="157"/>
+      <c r="F62" s="158"/>
       <c r="G62" s="127"/>
       <c r="H62" s="135" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="168" t="s">
-        <v>344</v>
-      </c>
-      <c r="B63" s="169"/>
-      <c r="C63" s="169"/>
-      <c r="D63" s="169"/>
-      <c r="E63" s="169"/>
-      <c r="F63" s="169"/>
-      <c r="G63" s="169"/>
-      <c r="H63" s="170"/>
+      <c r="A63" s="144" t="s">
+        <v>342</v>
+      </c>
+      <c r="B63" s="145"/>
+      <c r="C63" s="145"/>
+      <c r="D63" s="145"/>
+      <c r="E63" s="145"/>
+      <c r="F63" s="145"/>
+      <c r="G63" s="145"/>
+      <c r="H63" s="146"/>
     </row>
     <row r="64" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A64" s="178">
+      <c r="A64" s="137">
         <v>54</v>
       </c>
       <c r="B64" s="105" t="s">
@@ -4650,18 +4650,18 @@
       <c r="C64" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="D64" s="144" t="s">
+      <c r="D64" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="E64" s="144"/>
-      <c r="F64" s="144"/>
+      <c r="E64" s="143"/>
+      <c r="F64" s="143"/>
       <c r="G64" s="105"/>
-      <c r="H64" s="181" t="s">
+      <c r="H64" s="140" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A65" s="178">
+      <c r="A65" s="137">
         <f>A64+1</f>
         <v>55</v>
       </c>
@@ -4671,18 +4671,18 @@
       <c r="C65" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="D65" s="167" t="s">
+      <c r="D65" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="E65" s="144"/>
-      <c r="F65" s="144"/>
+      <c r="E65" s="143"/>
+      <c r="F65" s="143"/>
       <c r="G65" s="105"/>
-      <c r="H65" s="181" t="s">
+      <c r="H65" s="140" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A66" s="178">
+      <c r="A66" s="137">
         <f t="shared" ref="A66:A124" si="1">A65+1</f>
         <v>56</v>
       </c>
@@ -4692,207 +4692,207 @@
       <c r="C66" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="D66" s="144" t="s">
+      <c r="D66" s="143" t="s">
         <v>72</v>
       </c>
-      <c r="E66" s="144"/>
-      <c r="F66" s="144"/>
+      <c r="E66" s="143"/>
+      <c r="F66" s="143"/>
       <c r="G66" s="105"/>
-      <c r="H66" s="181" t="s">
+      <c r="H66" s="140" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A67" s="178">
+      <c r="A67" s="137">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B67" s="130" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" s="130" t="s">
         <v>186</v>
       </c>
-      <c r="C67" s="130" t="s">
-        <v>188</v>
-      </c>
-      <c r="D67" s="144" t="s">
-        <v>187</v>
-      </c>
-      <c r="E67" s="144"/>
-      <c r="F67" s="144"/>
+      <c r="D67" s="143" t="s">
+        <v>185</v>
+      </c>
+      <c r="E67" s="143"/>
+      <c r="F67" s="143"/>
       <c r="G67" s="130"/>
-      <c r="H67" s="181" t="s">
+      <c r="H67" s="140" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A68" s="178">
+      <c r="A68" s="137">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B68" s="130" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C68" s="130" t="s">
-        <v>191</v>
-      </c>
-      <c r="D68" s="144" t="s">
         <v>189</v>
       </c>
-      <c r="E68" s="144"/>
-      <c r="F68" s="144"/>
+      <c r="D68" s="143" t="s">
+        <v>187</v>
+      </c>
+      <c r="E68" s="143"/>
+      <c r="F68" s="143"/>
       <c r="G68" s="130"/>
-      <c r="H68" s="181" t="s">
+      <c r="H68" s="140" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A69" s="178">
+      <c r="A69" s="137">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B69" s="130" t="s">
+        <v>190</v>
+      </c>
+      <c r="C69" s="130" t="s">
+        <v>191</v>
+      </c>
+      <c r="D69" s="143" t="s">
         <v>192</v>
       </c>
-      <c r="C69" s="130" t="s">
-        <v>193</v>
-      </c>
-      <c r="D69" s="144" t="s">
-        <v>194</v>
-      </c>
-      <c r="E69" s="144"/>
-      <c r="F69" s="144"/>
+      <c r="E69" s="143"/>
+      <c r="F69" s="143"/>
       <c r="G69" s="130"/>
-      <c r="H69" s="181" t="s">
+      <c r="H69" s="140" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A70" s="178">
+      <c r="A70" s="137">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B70" s="130" t="s">
+        <v>193</v>
+      </c>
+      <c r="C70" s="130" t="s">
+        <v>194</v>
+      </c>
+      <c r="D70" s="156" t="s">
         <v>195</v>
       </c>
-      <c r="C70" s="130" t="s">
-        <v>196</v>
-      </c>
-      <c r="D70" s="139" t="s">
-        <v>197</v>
-      </c>
-      <c r="E70" s="140"/>
-      <c r="F70" s="141"/>
+      <c r="E70" s="157"/>
+      <c r="F70" s="158"/>
       <c r="G70" s="130"/>
-      <c r="H70" s="181" t="s">
+      <c r="H70" s="140" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A71" s="178">
+      <c r="A71" s="137">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B71" s="130" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C71" s="130" t="s">
+        <v>196</v>
+      </c>
+      <c r="D71" s="156" t="s">
         <v>198</v>
       </c>
-      <c r="D71" s="139" t="s">
-        <v>200</v>
-      </c>
-      <c r="E71" s="140"/>
-      <c r="F71" s="141"/>
+      <c r="E71" s="157"/>
+      <c r="F71" s="158"/>
       <c r="G71" s="130"/>
-      <c r="H71" s="181" t="s">
+      <c r="H71" s="140" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A72" s="178">
+      <c r="A72" s="137">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B72" s="130" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C72" s="130" t="s">
-        <v>201</v>
-      </c>
-      <c r="D72" s="139" t="s">
-        <v>202</v>
-      </c>
-      <c r="E72" s="140"/>
-      <c r="F72" s="141"/>
+        <v>199</v>
+      </c>
+      <c r="D72" s="156" t="s">
+        <v>200</v>
+      </c>
+      <c r="E72" s="157"/>
+      <c r="F72" s="158"/>
       <c r="G72" s="130"/>
-      <c r="H72" s="181" t="s">
+      <c r="H72" s="140" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A73" s="178">
+      <c r="A73" s="137">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B73" s="130" t="s">
+        <v>202</v>
+      </c>
+      <c r="C73" s="130" t="s">
+        <v>203</v>
+      </c>
+      <c r="D73" s="156" t="s">
         <v>204</v>
       </c>
-      <c r="C73" s="130" t="s">
-        <v>205</v>
-      </c>
-      <c r="D73" s="139" t="s">
-        <v>206</v>
-      </c>
-      <c r="E73" s="140"/>
-      <c r="F73" s="141"/>
+      <c r="E73" s="157"/>
+      <c r="F73" s="158"/>
       <c r="G73" s="130"/>
-      <c r="H73" s="181" t="s">
+      <c r="H73" s="140" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A74" s="178">
+      <c r="A74" s="137">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B74" s="130" t="s">
+        <v>205</v>
+      </c>
+      <c r="C74" s="130" t="s">
+        <v>206</v>
+      </c>
+      <c r="D74" s="156" t="s">
         <v>207</v>
       </c>
-      <c r="C74" s="130" t="s">
-        <v>208</v>
-      </c>
-      <c r="D74" s="139" t="s">
-        <v>209</v>
-      </c>
-      <c r="E74" s="140"/>
-      <c r="F74" s="141"/>
+      <c r="E74" s="157"/>
+      <c r="F74" s="158"/>
       <c r="G74" s="130"/>
-      <c r="H74" s="181" t="s">
+      <c r="H74" s="140" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A75" s="178">
+      <c r="A75" s="137">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="B75" s="130" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C75" s="130" t="s">
-        <v>213</v>
-      </c>
-      <c r="D75" s="139" t="s">
-        <v>209</v>
-      </c>
-      <c r="E75" s="140"/>
-      <c r="F75" s="141"/>
+        <v>211</v>
+      </c>
+      <c r="D75" s="156" t="s">
+        <v>207</v>
+      </c>
+      <c r="E75" s="157"/>
+      <c r="F75" s="158"/>
       <c r="G75" s="130"/>
-      <c r="H75" s="181" t="s">
+      <c r="H75" s="140" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A76" s="178">
+      <c r="A76" s="137">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
@@ -4902,39 +4902,39 @@
       <c r="C76" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="D76" s="171" t="s">
+      <c r="D76" s="153" t="s">
         <v>75</v>
       </c>
-      <c r="E76" s="172"/>
-      <c r="F76" s="173"/>
+      <c r="E76" s="154"/>
+      <c r="F76" s="155"/>
       <c r="G76" s="130"/>
-      <c r="H76" s="181" t="s">
+      <c r="H76" s="140" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A77" s="178">
+      <c r="A77" s="137">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="B77" s="105" t="s">
+        <v>212</v>
+      </c>
+      <c r="C77" s="130" t="s">
+        <v>213</v>
+      </c>
+      <c r="D77" s="153" t="s">
         <v>214</v>
       </c>
-      <c r="C77" s="130" t="s">
-        <v>215</v>
-      </c>
-      <c r="D77" s="171" t="s">
-        <v>216</v>
-      </c>
-      <c r="E77" s="172"/>
-      <c r="F77" s="173"/>
+      <c r="E77" s="154"/>
+      <c r="F77" s="155"/>
       <c r="G77" s="130"/>
-      <c r="H77" s="181" t="s">
+      <c r="H77" s="140" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A78" s="178">
+      <c r="A78" s="137">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
@@ -4944,102 +4944,102 @@
       <c r="C78" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="D78" s="167" t="s">
+      <c r="D78" s="152" t="s">
         <v>77</v>
       </c>
-      <c r="E78" s="144"/>
-      <c r="F78" s="144"/>
+      <c r="E78" s="143"/>
+      <c r="F78" s="143"/>
       <c r="G78" s="105"/>
-      <c r="H78" s="181" t="s">
+      <c r="H78" s="140" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A79" s="178">
+      <c r="A79" s="137">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B79" s="129" t="s">
+        <v>215</v>
+      </c>
+      <c r="C79" s="130" t="s">
+        <v>216</v>
+      </c>
+      <c r="D79" s="153" t="s">
         <v>217</v>
       </c>
-      <c r="C79" s="130" t="s">
-        <v>218</v>
-      </c>
-      <c r="D79" s="171" t="s">
-        <v>219</v>
-      </c>
-      <c r="E79" s="172"/>
-      <c r="F79" s="173"/>
+      <c r="E79" s="154"/>
+      <c r="F79" s="155"/>
       <c r="G79" s="130"/>
-      <c r="H79" s="181" t="s">
+      <c r="H79" s="140" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A80" s="178">
+      <c r="A80" s="137">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B80" s="129" t="s">
+        <v>218</v>
+      </c>
+      <c r="C80" s="130" t="s">
+        <v>219</v>
+      </c>
+      <c r="D80" s="153" t="s">
         <v>220</v>
       </c>
-      <c r="C80" s="130" t="s">
-        <v>221</v>
-      </c>
-      <c r="D80" s="171" t="s">
-        <v>222</v>
-      </c>
-      <c r="E80" s="172"/>
-      <c r="F80" s="173"/>
+      <c r="E80" s="154"/>
+      <c r="F80" s="155"/>
       <c r="G80" s="130"/>
-      <c r="H80" s="181" t="s">
+      <c r="H80" s="140" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A81" s="178">
+      <c r="A81" s="137">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B81" s="129" t="s">
+        <v>221</v>
+      </c>
+      <c r="C81" s="130" t="s">
+        <v>222</v>
+      </c>
+      <c r="D81" s="153" t="s">
         <v>223</v>
       </c>
-      <c r="C81" s="130" t="s">
-        <v>224</v>
-      </c>
-      <c r="D81" s="171" t="s">
-        <v>225</v>
-      </c>
-      <c r="E81" s="172"/>
-      <c r="F81" s="173"/>
+      <c r="E81" s="154"/>
+      <c r="F81" s="155"/>
       <c r="G81" s="130"/>
-      <c r="H81" s="181" t="s">
+      <c r="H81" s="140" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A82" s="178">
+      <c r="A82" s="137">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B82" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="C82" s="130" t="s">
+        <v>225</v>
+      </c>
+      <c r="D82" s="153" t="s">
         <v>226</v>
       </c>
-      <c r="C82" s="130" t="s">
-        <v>227</v>
-      </c>
-      <c r="D82" s="171" t="s">
-        <v>228</v>
-      </c>
-      <c r="E82" s="172"/>
-      <c r="F82" s="173"/>
+      <c r="E82" s="154"/>
+      <c r="F82" s="155"/>
       <c r="G82" s="130"/>
-      <c r="H82" s="181" t="s">
+      <c r="H82" s="140" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A83" s="178">
+      <c r="A83" s="137">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
@@ -5049,39 +5049,39 @@
       <c r="C83" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="D83" s="144" t="s">
+      <c r="D83" s="143" t="s">
         <v>79</v>
       </c>
-      <c r="E83" s="144"/>
-      <c r="F83" s="144"/>
+      <c r="E83" s="143"/>
+      <c r="F83" s="143"/>
       <c r="G83" s="103"/>
-      <c r="H83" s="180" t="s">
+      <c r="H83" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A84" s="178">
+      <c r="A84" s="137">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B84" s="130" t="s">
+        <v>227</v>
+      </c>
+      <c r="C84" s="130" t="s">
+        <v>228</v>
+      </c>
+      <c r="D84" s="153" t="s">
         <v>229</v>
       </c>
-      <c r="C84" s="130" t="s">
-        <v>230</v>
-      </c>
-      <c r="D84" s="171" t="s">
-        <v>231</v>
-      </c>
-      <c r="E84" s="172"/>
-      <c r="F84" s="173"/>
+      <c r="E84" s="154"/>
+      <c r="F84" s="155"/>
       <c r="G84" s="130"/>
-      <c r="H84" s="181" t="s">
+      <c r="H84" s="140" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A85" s="178">
+      <c r="A85" s="137">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
@@ -5091,501 +5091,501 @@
       <c r="C85" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="D85" s="144" t="s">
+      <c r="D85" s="143" t="s">
         <v>77</v>
       </c>
-      <c r="E85" s="144"/>
-      <c r="F85" s="144"/>
+      <c r="E85" s="143"/>
+      <c r="F85" s="143"/>
       <c r="G85" s="103"/>
-      <c r="H85" s="180" t="s">
+      <c r="H85" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A86" s="178">
+      <c r="A86" s="137">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B86" s="108" t="s">
+        <v>230</v>
+      </c>
+      <c r="C86" s="85" t="s">
         <v>232</v>
       </c>
-      <c r="C86" s="85" t="s">
-        <v>234</v>
-      </c>
-      <c r="D86" s="174" t="s">
-        <v>235</v>
-      </c>
-      <c r="E86" s="144"/>
-      <c r="F86" s="144"/>
+      <c r="D86" s="151" t="s">
+        <v>233</v>
+      </c>
+      <c r="E86" s="143"/>
+      <c r="F86" s="143"/>
       <c r="G86" s="121"/>
-      <c r="H86" s="180" t="s">
+      <c r="H86" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A87" s="178">
+      <c r="A87" s="137">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B87" s="108" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C87" s="85" t="s">
-        <v>236</v>
-      </c>
-      <c r="D87" s="174" t="s">
-        <v>237</v>
-      </c>
-      <c r="E87" s="144"/>
-      <c r="F87" s="144"/>
+        <v>234</v>
+      </c>
+      <c r="D87" s="151" t="s">
+        <v>235</v>
+      </c>
+      <c r="E87" s="143"/>
+      <c r="F87" s="143"/>
       <c r="G87" s="121"/>
-      <c r="H87" s="180" t="s">
+      <c r="H87" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A88" s="178">
+      <c r="A88" s="137">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B88" s="108" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C88" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="D88" s="144" t="s">
+      <c r="D88" s="143" t="s">
         <v>79</v>
       </c>
-      <c r="E88" s="144"/>
-      <c r="F88" s="144"/>
+      <c r="E88" s="143"/>
+      <c r="F88" s="143"/>
       <c r="G88" s="121"/>
-      <c r="H88" s="180" t="s">
+      <c r="H88" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A89" s="178">
+      <c r="A89" s="137">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B89" s="108" t="s">
+        <v>237</v>
+      </c>
+      <c r="C89" s="108" t="s">
+        <v>238</v>
+      </c>
+      <c r="D89" s="143" t="s">
         <v>239</v>
       </c>
-      <c r="C89" s="108" t="s">
-        <v>240</v>
-      </c>
-      <c r="D89" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="E89" s="144"/>
-      <c r="F89" s="144"/>
+      <c r="E89" s="143"/>
+      <c r="F89" s="143"/>
       <c r="G89" s="103"/>
-      <c r="H89" s="180" t="s">
+      <c r="H89" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A90" s="178">
+      <c r="A90" s="137">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B90" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="C90" s="85" t="s">
+        <v>241</v>
+      </c>
+      <c r="D90" s="151" t="s">
         <v>242</v>
       </c>
-      <c r="C90" s="85" t="s">
-        <v>243</v>
-      </c>
-      <c r="D90" s="174" t="s">
-        <v>244</v>
-      </c>
-      <c r="E90" s="144"/>
-      <c r="F90" s="144"/>
+      <c r="E90" s="143"/>
+      <c r="F90" s="143"/>
       <c r="G90" s="121"/>
-      <c r="H90" s="180" t="s">
+      <c r="H90" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A91" s="178">
+      <c r="A91" s="137">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B91" s="108" t="s">
+        <v>243</v>
+      </c>
+      <c r="C91" s="108" t="s">
+        <v>244</v>
+      </c>
+      <c r="D91" s="143" t="s">
         <v>245</v>
       </c>
-      <c r="C91" s="108" t="s">
-        <v>246</v>
-      </c>
-      <c r="D91" s="144" t="s">
-        <v>247</v>
-      </c>
-      <c r="E91" s="144"/>
-      <c r="F91" s="144"/>
+      <c r="E91" s="143"/>
+      <c r="F91" s="143"/>
       <c r="G91" s="121"/>
-      <c r="H91" s="180" t="s">
+      <c r="H91" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A92" s="178">
+      <c r="A92" s="137">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B92" s="108" t="s">
+        <v>246</v>
+      </c>
+      <c r="C92" s="108" t="s">
+        <v>247</v>
+      </c>
+      <c r="D92" s="143" t="s">
         <v>248</v>
       </c>
-      <c r="C92" s="108" t="s">
-        <v>249</v>
-      </c>
-      <c r="D92" s="144" t="s">
-        <v>250</v>
-      </c>
-      <c r="E92" s="144"/>
-      <c r="F92" s="144"/>
+      <c r="E92" s="143"/>
+      <c r="F92" s="143"/>
       <c r="G92" s="103"/>
-      <c r="H92" s="180" t="s">
+      <c r="H92" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A93" s="178">
+      <c r="A93" s="137">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B93" s="108" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C93" s="85" t="s">
-        <v>243</v>
-      </c>
-      <c r="D93" s="174" t="s">
-        <v>244</v>
-      </c>
-      <c r="E93" s="144"/>
-      <c r="F93" s="144"/>
+        <v>241</v>
+      </c>
+      <c r="D93" s="151" t="s">
+        <v>242</v>
+      </c>
+      <c r="E93" s="143"/>
+      <c r="F93" s="143"/>
       <c r="G93" s="121"/>
-      <c r="H93" s="180" t="s">
+      <c r="H93" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A94" s="178">
+      <c r="A94" s="137">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B94" s="108" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C94" s="85" t="s">
-        <v>262</v>
-      </c>
-      <c r="D94" s="174" t="s">
-        <v>244</v>
-      </c>
-      <c r="E94" s="144"/>
-      <c r="F94" s="144"/>
+        <v>260</v>
+      </c>
+      <c r="D94" s="151" t="s">
+        <v>242</v>
+      </c>
+      <c r="E94" s="143"/>
+      <c r="F94" s="143"/>
       <c r="G94" s="121"/>
-      <c r="H94" s="180" t="s">
+      <c r="H94" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A95" s="178">
+      <c r="A95" s="137">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B95" s="108" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C95" s="85" t="s">
-        <v>261</v>
-      </c>
-      <c r="D95" s="174" t="s">
-        <v>254</v>
-      </c>
-      <c r="E95" s="144"/>
-      <c r="F95" s="144"/>
+        <v>259</v>
+      </c>
+      <c r="D95" s="151" t="s">
+        <v>252</v>
+      </c>
+      <c r="E95" s="143"/>
+      <c r="F95" s="143"/>
       <c r="G95" s="121"/>
-      <c r="H95" s="180" t="s">
+      <c r="H95" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A96" s="178">
+      <c r="A96" s="137">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B96" s="108" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C96" s="85" t="s">
-        <v>260</v>
-      </c>
-      <c r="D96" s="174" t="s">
-        <v>255</v>
-      </c>
-      <c r="E96" s="144"/>
-      <c r="F96" s="144"/>
+        <v>258</v>
+      </c>
+      <c r="D96" s="151" t="s">
+        <v>253</v>
+      </c>
+      <c r="E96" s="143"/>
+      <c r="F96" s="143"/>
       <c r="G96" s="121"/>
-      <c r="H96" s="180" t="s">
+      <c r="H96" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A97" s="178">
+      <c r="A97" s="137">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B97" s="108" t="s">
+        <v>254</v>
+      </c>
+      <c r="C97" s="85" t="s">
+        <v>257</v>
+      </c>
+      <c r="D97" s="151" t="s">
+        <v>255</v>
+      </c>
+      <c r="E97" s="143"/>
+      <c r="F97" s="143"/>
+      <c r="G97" s="121"/>
+      <c r="H97" s="139" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="80.099999999999994" customHeight="1">
+      <c r="A98" s="137">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B98" s="108" t="s">
         <v>256</v>
       </c>
-      <c r="C97" s="85" t="s">
-        <v>259</v>
-      </c>
-      <c r="D97" s="174" t="s">
-        <v>257</v>
-      </c>
-      <c r="E97" s="144"/>
-      <c r="F97" s="144"/>
-      <c r="G97" s="121"/>
-      <c r="H97" s="180" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A98" s="178">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="B98" s="108" t="s">
-        <v>258</v>
-      </c>
       <c r="C98" s="85" t="s">
-        <v>263</v>
-      </c>
-      <c r="D98" s="174" t="s">
-        <v>264</v>
-      </c>
-      <c r="E98" s="144"/>
-      <c r="F98" s="144"/>
+        <v>261</v>
+      </c>
+      <c r="D98" s="151" t="s">
+        <v>262</v>
+      </c>
+      <c r="E98" s="143"/>
+      <c r="F98" s="143"/>
       <c r="G98" s="121"/>
-      <c r="H98" s="180" t="s">
+      <c r="H98" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A99" s="178">
+      <c r="A99" s="137">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B99" s="108" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C99" s="108" t="s">
-        <v>285</v>
-      </c>
-      <c r="D99" s="174" t="s">
-        <v>266</v>
-      </c>
-      <c r="E99" s="144"/>
-      <c r="F99" s="144"/>
+        <v>283</v>
+      </c>
+      <c r="D99" s="151" t="s">
+        <v>264</v>
+      </c>
+      <c r="E99" s="143"/>
+      <c r="F99" s="143"/>
       <c r="G99" s="121"/>
-      <c r="H99" s="180" t="s">
+      <c r="H99" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A100" s="178">
+      <c r="A100" s="137">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B100" s="108" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C100" s="108" t="s">
-        <v>284</v>
-      </c>
-      <c r="D100" s="174" t="s">
-        <v>268</v>
-      </c>
-      <c r="E100" s="144"/>
-      <c r="F100" s="144"/>
+        <v>282</v>
+      </c>
+      <c r="D100" s="151" t="s">
+        <v>266</v>
+      </c>
+      <c r="E100" s="143"/>
+      <c r="F100" s="143"/>
       <c r="G100" s="121"/>
-      <c r="H100" s="180" t="s">
+      <c r="H100" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A101" s="178">
+      <c r="A101" s="137">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B101" s="108" t="s">
+        <v>267</v>
+      </c>
+      <c r="C101" s="108" t="s">
         <v>269</v>
       </c>
-      <c r="C101" s="108" t="s">
-        <v>271</v>
-      </c>
-      <c r="D101" s="174" t="s">
-        <v>270</v>
-      </c>
-      <c r="E101" s="144"/>
-      <c r="F101" s="144"/>
+      <c r="D101" s="151" t="s">
+        <v>268</v>
+      </c>
+      <c r="E101" s="143"/>
+      <c r="F101" s="143"/>
       <c r="G101" s="121"/>
-      <c r="H101" s="180" t="s">
+      <c r="H101" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A102" s="178">
+      <c r="A102" s="137">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B102" s="108" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C102" s="108" t="s">
-        <v>286</v>
-      </c>
-      <c r="D102" s="174" t="s">
-        <v>272</v>
-      </c>
-      <c r="E102" s="144"/>
-      <c r="F102" s="144"/>
+        <v>284</v>
+      </c>
+      <c r="D102" s="151" t="s">
+        <v>270</v>
+      </c>
+      <c r="E102" s="143"/>
+      <c r="F102" s="143"/>
       <c r="G102" s="121"/>
-      <c r="H102" s="180" t="s">
+      <c r="H102" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A103" s="178">
+      <c r="A103" s="137">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B103" s="108" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C103" s="108" t="s">
-        <v>287</v>
-      </c>
-      <c r="D103" s="174" t="s">
-        <v>273</v>
-      </c>
-      <c r="E103" s="144"/>
-      <c r="F103" s="144"/>
+        <v>285</v>
+      </c>
+      <c r="D103" s="151" t="s">
+        <v>271</v>
+      </c>
+      <c r="E103" s="143"/>
+      <c r="F103" s="143"/>
       <c r="G103" s="121"/>
-      <c r="H103" s="180" t="s">
+      <c r="H103" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A104" s="178">
+      <c r="A104" s="137">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B104" s="108" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C104" s="108" t="s">
+        <v>272</v>
+      </c>
+      <c r="D104" s="151" t="s">
         <v>274</v>
       </c>
-      <c r="D104" s="174" t="s">
-        <v>276</v>
-      </c>
-      <c r="E104" s="144"/>
-      <c r="F104" s="144"/>
+      <c r="E104" s="143"/>
+      <c r="F104" s="143"/>
       <c r="G104" s="121"/>
-      <c r="H104" s="180" t="s">
+      <c r="H104" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A105" s="178">
+      <c r="A105" s="137">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B105" s="108" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C105" s="108" t="s">
-        <v>288</v>
-      </c>
-      <c r="D105" s="174" t="s">
-        <v>275</v>
-      </c>
-      <c r="E105" s="144"/>
-      <c r="F105" s="144"/>
+        <v>286</v>
+      </c>
+      <c r="D105" s="151" t="s">
+        <v>273</v>
+      </c>
+      <c r="E105" s="143"/>
+      <c r="F105" s="143"/>
       <c r="G105" s="121"/>
-      <c r="H105" s="180" t="s">
+      <c r="H105" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A106" s="178">
+      <c r="A106" s="137">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B106" s="108" t="s">
+        <v>279</v>
+      </c>
+      <c r="C106" s="108" t="s">
+        <v>280</v>
+      </c>
+      <c r="D106" s="151" t="s">
         <v>281</v>
       </c>
-      <c r="C106" s="108" t="s">
-        <v>282</v>
-      </c>
-      <c r="D106" s="174" t="s">
-        <v>283</v>
-      </c>
-      <c r="E106" s="144"/>
-      <c r="F106" s="144"/>
+      <c r="E106" s="143"/>
+      <c r="F106" s="143"/>
       <c r="G106" s="121"/>
-      <c r="H106" s="180" t="s">
+      <c r="H106" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A107" s="178">
+      <c r="A107" s="137">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B107" s="130" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C107" s="108" t="s">
-        <v>290</v>
-      </c>
-      <c r="D107" s="144" t="s">
-        <v>293</v>
-      </c>
-      <c r="E107" s="144"/>
-      <c r="F107" s="144"/>
+        <v>288</v>
+      </c>
+      <c r="D107" s="143" t="s">
+        <v>291</v>
+      </c>
+      <c r="E107" s="143"/>
+      <c r="F107" s="143"/>
       <c r="G107" s="130"/>
-      <c r="H107" s="181" t="s">
+      <c r="H107" s="140" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A108" s="178">
+      <c r="A108" s="137">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B108" s="130" t="s">
+        <v>287</v>
+      </c>
+      <c r="C108" s="108" t="s">
         <v>289</v>
       </c>
-      <c r="C108" s="108" t="s">
-        <v>291</v>
-      </c>
-      <c r="D108" s="144" t="s">
-        <v>292</v>
-      </c>
-      <c r="E108" s="144"/>
-      <c r="F108" s="144"/>
+      <c r="D108" s="143" t="s">
+        <v>290</v>
+      </c>
+      <c r="E108" s="143"/>
+      <c r="F108" s="143"/>
       <c r="G108" s="130"/>
-      <c r="H108" s="181" t="s">
+      <c r="H108" s="140" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A109" s="178">
+      <c r="A109" s="137">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
@@ -5593,347 +5593,347 @@
         <v>69</v>
       </c>
       <c r="C109" s="108" t="s">
-        <v>294</v>
-      </c>
-      <c r="D109" s="144" t="s">
         <v>292</v>
       </c>
-      <c r="E109" s="144"/>
-      <c r="F109" s="144"/>
+      <c r="D109" s="143" t="s">
+        <v>290</v>
+      </c>
+      <c r="E109" s="143"/>
+      <c r="F109" s="143"/>
       <c r="G109" s="130"/>
-      <c r="H109" s="181" t="s">
+      <c r="H109" s="140" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A110" s="178">
+      <c r="A110" s="137">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B110" s="130" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C110" s="108" t="s">
+        <v>293</v>
+      </c>
+      <c r="D110" s="143" t="s">
         <v>295</v>
       </c>
-      <c r="D110" s="144" t="s">
-        <v>297</v>
-      </c>
-      <c r="E110" s="144"/>
-      <c r="F110" s="144"/>
+      <c r="E110" s="143"/>
+      <c r="F110" s="143"/>
       <c r="G110" s="132"/>
-      <c r="H110" s="181" t="s">
+      <c r="H110" s="140" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A111" s="178">
+      <c r="A111" s="137">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="B111" s="130" t="s">
+        <v>296</v>
+      </c>
+      <c r="C111" s="130" t="s">
+        <v>297</v>
+      </c>
+      <c r="D111" s="152" t="s">
         <v>298</v>
       </c>
-      <c r="C111" s="130" t="s">
-        <v>299</v>
-      </c>
-      <c r="D111" s="167" t="s">
-        <v>300</v>
-      </c>
-      <c r="E111" s="144"/>
-      <c r="F111" s="144"/>
+      <c r="E111" s="143"/>
+      <c r="F111" s="143"/>
       <c r="G111" s="130"/>
-      <c r="H111" s="181" t="s">
+      <c r="H111" s="140" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A112" s="178">
+      <c r="A112" s="137">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="B112" s="108" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C112" s="85" t="s">
-        <v>304</v>
-      </c>
-      <c r="D112" s="174" t="s">
         <v>302</v>
       </c>
-      <c r="E112" s="144"/>
-      <c r="F112" s="144"/>
+      <c r="D112" s="151" t="s">
+        <v>300</v>
+      </c>
+      <c r="E112" s="143"/>
+      <c r="F112" s="143"/>
       <c r="G112" s="121"/>
-      <c r="H112" s="180" t="s">
+      <c r="H112" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="80.099999999999994" customHeight="1">
-      <c r="A113" s="178">
+      <c r="A113" s="137">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="B113" s="108" t="s">
+        <v>301</v>
+      </c>
+      <c r="C113" s="85" t="s">
         <v>303</v>
       </c>
-      <c r="C113" s="85" t="s">
-        <v>305</v>
-      </c>
-      <c r="D113" s="174" t="s">
-        <v>306</v>
-      </c>
-      <c r="E113" s="144"/>
-      <c r="F113" s="144"/>
+      <c r="D113" s="151" t="s">
+        <v>304</v>
+      </c>
+      <c r="E113" s="143"/>
+      <c r="F113" s="143"/>
       <c r="G113" s="132"/>
-      <c r="H113" s="180" t="s">
+      <c r="H113" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="80.099999999999994" customHeight="1">
-      <c r="A114" s="178">
+      <c r="A114" s="137">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="B114" s="108" t="s">
+        <v>305</v>
+      </c>
+      <c r="C114" s="85" t="s">
+        <v>306</v>
+      </c>
+      <c r="D114" s="151" t="s">
         <v>307</v>
       </c>
-      <c r="C114" s="85" t="s">
-        <v>308</v>
-      </c>
-      <c r="D114" s="174" t="s">
-        <v>309</v>
-      </c>
-      <c r="E114" s="144"/>
-      <c r="F114" s="144"/>
+      <c r="E114" s="143"/>
+      <c r="F114" s="143"/>
       <c r="G114" s="132"/>
-      <c r="H114" s="180" t="s">
+      <c r="H114" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="80.099999999999994" customHeight="1">
-      <c r="A115" s="178">
+      <c r="A115" s="137">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="B115" s="132" t="s">
+        <v>308</v>
+      </c>
+      <c r="C115" s="108" t="s">
+        <v>309</v>
+      </c>
+      <c r="D115" s="150" t="s">
         <v>310</v>
       </c>
-      <c r="C115" s="108" t="s">
-        <v>311</v>
-      </c>
-      <c r="D115" s="175" t="s">
-        <v>312</v>
-      </c>
-      <c r="E115" s="176"/>
-      <c r="F115" s="177"/>
+      <c r="E115" s="148"/>
+      <c r="F115" s="149"/>
       <c r="G115" s="132"/>
-      <c r="H115" s="180" t="s">
+      <c r="H115" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="80.099999999999994" customHeight="1">
-      <c r="A116" s="178">
+      <c r="A116" s="137">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="B116" s="108" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C116" s="85" t="s">
+        <v>311</v>
+      </c>
+      <c r="D116" s="151" t="s">
         <v>313</v>
       </c>
-      <c r="D116" s="174" t="s">
-        <v>315</v>
-      </c>
-      <c r="E116" s="144"/>
-      <c r="F116" s="144"/>
+      <c r="E116" s="143"/>
+      <c r="F116" s="143"/>
       <c r="G116" s="121"/>
-      <c r="H116" s="180" t="s">
+      <c r="H116" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="80.099999999999994" customHeight="1">
-      <c r="A117" s="178">
+      <c r="A117" s="137">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="B117" s="108" t="s">
+        <v>314</v>
+      </c>
+      <c r="C117" s="85" t="s">
+        <v>315</v>
+      </c>
+      <c r="D117" s="151" t="s">
         <v>316</v>
       </c>
-      <c r="C117" s="85" t="s">
-        <v>317</v>
-      </c>
-      <c r="D117" s="174" t="s">
-        <v>318</v>
-      </c>
-      <c r="E117" s="144"/>
-      <c r="F117" s="144"/>
+      <c r="E117" s="143"/>
+      <c r="F117" s="143"/>
       <c r="G117" s="121"/>
-      <c r="H117" s="180" t="s">
+      <c r="H117" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="80.099999999999994" customHeight="1">
-      <c r="A118" s="178">
+      <c r="A118" s="137">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="B118" s="108" t="s">
+        <v>317</v>
+      </c>
+      <c r="C118" s="85" t="s">
+        <v>318</v>
+      </c>
+      <c r="D118" s="151" t="s">
         <v>319</v>
       </c>
-      <c r="C118" s="85" t="s">
-        <v>320</v>
-      </c>
-      <c r="D118" s="174" t="s">
-        <v>321</v>
-      </c>
-      <c r="E118" s="144"/>
-      <c r="F118" s="144"/>
+      <c r="E118" s="143"/>
+      <c r="F118" s="143"/>
       <c r="G118" s="121"/>
-      <c r="H118" s="180" t="s">
+      <c r="H118" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="80.099999999999994" customHeight="1">
-      <c r="A119" s="178">
+      <c r="A119" s="137">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="B119" s="133" t="s">
+        <v>320</v>
+      </c>
+      <c r="C119" s="108" t="s">
+        <v>321</v>
+      </c>
+      <c r="D119" s="150" t="s">
         <v>322</v>
       </c>
-      <c r="C119" s="108" t="s">
-        <v>323</v>
-      </c>
-      <c r="D119" s="175" t="s">
-        <v>324</v>
-      </c>
-      <c r="E119" s="176"/>
-      <c r="F119" s="177"/>
+      <c r="E119" s="148"/>
+      <c r="F119" s="149"/>
       <c r="G119" s="132"/>
-      <c r="H119" s="180" t="s">
+      <c r="H119" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="80.099999999999994" customHeight="1">
-      <c r="A120" s="178">
+      <c r="A120" s="137">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="B120" s="133" t="s">
+        <v>323</v>
+      </c>
+      <c r="C120" s="108" t="s">
+        <v>324</v>
+      </c>
+      <c r="D120" s="150" t="s">
         <v>325</v>
       </c>
-      <c r="C120" s="108" t="s">
-        <v>326</v>
-      </c>
-      <c r="D120" s="175" t="s">
-        <v>327</v>
-      </c>
-      <c r="E120" s="176"/>
-      <c r="F120" s="177"/>
+      <c r="E120" s="148"/>
+      <c r="F120" s="149"/>
       <c r="G120" s="132"/>
-      <c r="H120" s="180" t="s">
+      <c r="H120" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="80.099999999999994" customHeight="1">
-      <c r="A121" s="178">
+      <c r="A121" s="137">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="B121" s="133" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C121" s="108" t="s">
-        <v>336</v>
-      </c>
-      <c r="D121" s="175" t="s">
-        <v>332</v>
-      </c>
-      <c r="E121" s="176"/>
-      <c r="F121" s="177"/>
+        <v>334</v>
+      </c>
+      <c r="D121" s="150" t="s">
+        <v>330</v>
+      </c>
+      <c r="E121" s="148"/>
+      <c r="F121" s="149"/>
       <c r="G121" s="132"/>
-      <c r="H121" s="180" t="s">
+      <c r="H121" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="80.099999999999994" customHeight="1">
-      <c r="A122" s="178">
+      <c r="A122" s="137">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="B122" s="133" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C122" s="108" t="s">
+        <v>331</v>
+      </c>
+      <c r="D122" s="150" t="s">
         <v>333</v>
       </c>
-      <c r="D122" s="175" t="s">
-        <v>335</v>
-      </c>
-      <c r="E122" s="176"/>
-      <c r="F122" s="177"/>
+      <c r="E122" s="148"/>
+      <c r="F122" s="149"/>
       <c r="G122" s="132"/>
-      <c r="H122" s="180" t="s">
+      <c r="H122" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="80.099999999999994" customHeight="1">
-      <c r="A123" s="178">
+      <c r="A123" s="137">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="B123" s="133" t="s">
+        <v>335</v>
+      </c>
+      <c r="C123" s="108" t="s">
+        <v>336</v>
+      </c>
+      <c r="D123" s="147" t="s">
         <v>337</v>
       </c>
-      <c r="C123" s="108" t="s">
-        <v>338</v>
-      </c>
-      <c r="D123" s="145" t="s">
-        <v>339</v>
-      </c>
-      <c r="E123" s="176"/>
-      <c r="F123" s="177"/>
+      <c r="E123" s="148"/>
+      <c r="F123" s="149"/>
       <c r="G123" s="132"/>
-      <c r="H123" s="180" t="s">
+      <c r="H123" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="80.099999999999994" customHeight="1">
-      <c r="A124" s="178">
+      <c r="A124" s="137">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="B124" s="133" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C124" s="108" t="s">
-        <v>343</v>
-      </c>
-      <c r="D124" s="145" t="s">
-        <v>340</v>
-      </c>
-      <c r="E124" s="176"/>
-      <c r="F124" s="177"/>
+        <v>341</v>
+      </c>
+      <c r="D124" s="147" t="s">
+        <v>338</v>
+      </c>
+      <c r="E124" s="148"/>
+      <c r="F124" s="149"/>
       <c r="G124" s="132"/>
-      <c r="H124" s="180" t="s">
+      <c r="H124" s="139" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="80.099999999999994" customHeight="1">
       <c r="B125" s="133" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C125" s="108" t="s">
-        <v>342</v>
-      </c>
-      <c r="D125" s="145" t="s">
-        <v>339</v>
-      </c>
-      <c r="E125" s="176"/>
-      <c r="F125" s="177"/>
+        <v>340</v>
+      </c>
+      <c r="D125" s="147" t="s">
+        <v>337</v>
+      </c>
+      <c r="E125" s="148"/>
+      <c r="F125" s="149"/>
       <c r="G125" s="132"/>
-      <c r="H125" s="180" t="s">
+      <c r="H125" s="139" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5971,6 +5971,111 @@
     </row>
   </sheetData>
   <mergeCells count="129">
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:G9"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="D84:F84"/>
     <mergeCell ref="D108:F108"/>
     <mergeCell ref="A63:H63"/>
     <mergeCell ref="D125:F125"/>
@@ -5995,111 +6100,6 @@
     <mergeCell ref="D109:F109"/>
     <mergeCell ref="D100:F100"/>
     <mergeCell ref="D101:F101"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="D8:G9"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D62:F62"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
